--- a/deber 3/data/artwork_data_grafico.xlsx
+++ b/deber 3/data/artwork_data_grafico.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\python\py-balarezo-leon-ricardo-martin\deber 3\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -271,14 +276,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,30 +312,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="10"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -334,7 +373,36 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -345,6 +413,1855 @@
           <c:tx>
             <c:v>Pie data</c:v>
           </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="54"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="55"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="56"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="57"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="58"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="59"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="60"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="61"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="62"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="63"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="64"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="65"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="66"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="67"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="68"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="69"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="70"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="71"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="72"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="73"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="74"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="75"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="76"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="77"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="78"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="79"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="80"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="81"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="82"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="83"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$1:$A$84</c:f>
@@ -867,25 +2784,108 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -894,20 +2894,658 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -930,7 +3568,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -972,7 +3610,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1004,9 +3642,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1038,6 +3677,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1213,687 +3853,694 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>